--- a/NetMeds/TestData/InputData.xlsx
+++ b/NetMeds/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\182282\source\repos\MiniProject\NetMeds\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61580A74-8924-4C3C-8AD9-D10DFEBE97B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEAD647-5F67-4BD4-8363-900D319CEA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -399,7 +399,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>

--- a/NetMeds/TestData/InputData.xlsx
+++ b/NetMeds/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\182282\source\repos\MiniProject\NetMeds\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEAD647-5F67-4BD4-8363-900D319CEA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EC2A85-4B30-4EDF-A8A7-F5C39CB0C3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>

--- a/NetMeds/TestData/InputData.xlsx
+++ b/NetMeds/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\182282\source\repos\MiniProject\NetMeds\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EC2A85-4B30-4EDF-A8A7-F5C39CB0C3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF9C534-D5EC-4203-8732-1AD8412A26AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
